--- a/2025-03-03_4o-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_spec/CREST syndrome with Type 2 Achalasia_vs_Scleroderma.xlsx
@@ -462,44 +462,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Pain relieved with regurgitation is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>This finding is more characteristic of achalasia, which is associated with CREST syndrome with Type 2 Achalasia.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome and is less common in Scleroderma.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hand pain out of proportion to other joints is present.</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hand pain can be more indicative of Scleroderma, especially if it is associated with skin changes.</t>
+          <t>Raynaud's phenomenon is a common feature of Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Non-progressive dysphagia is more typical of achalasia, which is associated with CREST syndrome with Type 2 Achalasia.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Telangiectasias reported is present.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Telangiectasias are more characteristic of CREST syndrome than Scleroderma.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Weight loss reported is present.</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weight loss can be more common in Scleroderma due to gastrointestinal involvement.</t>
+          <t>Telangiectasias are more commonly associated with Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -511,61 +511,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is common in Type 2 Achalasia associated with CREST syndrome.</t>
+          <t>Difficulty swallowing liquids is more indicative of achalasia, which is associated with CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional) is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Positional pain can suggest gastroesophageal reflux disease, which is more common in Scleroderma.</t>
+          <t>Hand pain is more characteristic of Scleroderma due to skin and joint involvement.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia for solids is also indicative of esophageal involvement in CREST syndrome.</t>
+          <t>Odynophagia can be associated with esophageal motility disorders like achalasia, linked to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Odynophagia can be more associated with esophageal motility disorders seen in Scleroderma.</t>
+          <t>Heartburn is common in Scleroderma due to esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Pain worse when lying down (positional) is present.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Positional pain is more commonly associated with esophageal issues like achalasia, linked to CREST syndrome with Type 2 Achalasia.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Current reflux is present.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Reflux is frequently associated with Type 2 Achalasia, which is a component of CREST syndrome.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Early satiety is present.</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Early satiety can be indicative of gastrointestinal dysmotility, which is more common in Scleroderma.</t>
+          <t>Reflux is a common symptom in Scleroderma due to esophageal dysmotility.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female is present</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is more prevalent in females compared to Scleroderma, which can occur in both genders.</t>
+          <t>CREST syndrome with Type 2 Achalasia often presents in middle-aged individuals, whereas Scleroderma can present at a wider age range.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>absence of prior myocardial infarction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Scleroderma can be associated with prior radiation exposure, while this absence does not strongly favor CREST syndrome.</t>
+          <t>Scleroderma can be associated with cardiac involvement, making the absence of myocardial infarction less supportive of Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age is present</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome typically presents in middle-aged individuals, while Scleroderma can present at a wider age range.</t>
+          <t>CREST syndrome is more common in females, which aligns with the patient's gender.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Prior myocardial infarction is absent</t>
+          <t>absence of obesity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scleroderma can lead to cardiovascular complications, making the absence of myocardial infarction less indicative of CREST syndrome.</t>
+          <t>Obesity is not a distinguishing factor for Scleroderma, but its absence does not strongly favor CREST syndrome either.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine is present</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is often used to manage hypertension and Raynaud's phenomenon, which is more common in CREST syndrome.</t>
+          <t>Amlodipine is sometimes used to manage Raynaud's phenomenon, which is a component of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior stroke is absent</t>
+          <t>absence of recent medication changes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of stroke is more common in Scleroderma patients, who may have vascular complications.</t>
+          <t>Stable medication regimens are more common in chronic conditions like Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder is more consistent with CREST syndrome, as Scleroderma can be associated with various lifestyle factors.</t>
+          <t>Hypertension is less commonly associated with CREST syndrome compared to Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Diagnosed hypertension is absent</t>
+          <t>absence of environmental allergies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hypertension is a common finding in Scleroderma due to renal involvement, making its absence less supportive of CREST syndrome.</t>
+          <t>Environmental allergies are not typically associated with Scleroderma, but their absence does not strongly favor CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Environmental allergies is absent</t>
+          <t>absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of environmental allergies may suggest a non-allergic etiology, which aligns more with CREST syndrome than Scleroderma.</t>
+          <t>Type 2 diabetes is not typically associated with CREST syndrome, supporting its absence.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Asthma is absent</t>
+          <t>absence of asthma</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of asthma does not favor CREST syndrome, as respiratory issues can be more prevalent in Scleroderma.</t>
+          <t>Asthma is not typically associated with Scleroderma, but its absence does not strongly favor CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Family history of myocardial infarction in father is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The absence of a family history of Rheumatoid Arthritis is more consistent with CREST syndrome, as Scleroderma may have a stronger association with autoimmune conditions.</t>
+          <t>Cardiovascular issues can be associated with CREST syndrome, and a family history of myocardial infarction may suggest a predisposition to vascular complications.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Family history of Rheumatoid Arthritis is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prior tobacco use is more commonly associated with Scleroderma, as it can contribute to vascular and pulmonary complications.</t>
+          <t>While the absence of a family history of autoimmune diseases is not strongly indicative, Scleroderma is often associated with a family history of autoimmune conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of alcohol use may be more common in patients with CREST syndrome, as lifestyle factors can differ between the two conditions.</t>
+          <t>Social stress can exacerbate symptoms of CREST syndrome, particularly esophageal symptoms like achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present.</t>
+          <t>Family history of cancer is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This finding may also support Scleroderma, as cardiovascular issues can be more prevalent in this condition.</t>
+          <t>The absence of a family history of cancer is neutral but may slightly favor Scleroderma, as CREST syndrome can sometimes be associated with malignancies.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Prior tobacco use is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use may suggest a lower risk profile for CREST syndrome, as smoking is often associated with other conditions.</t>
+          <t>Tobacco use is a known risk factor for esophageal issues, which are prominent in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Recent Travel is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate symptoms in Scleroderma, making it a relevant factor for this diagnosis.</t>
+          <t>The absence of recent travel is neutral but may slightly favor Scleroderma, as environmental factors and stress from travel can exacerbate CREST syndrome symptoms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present.</t>
+          <t>Family history of Rheumatoid Arthritis is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction may be more relevant to CREST syndrome, which can have cardiovascular implications.</t>
+          <t>The absence of a family history of autoimmune diseases like Rheumatoid Arthritis may slightly favor CREST syndrome, which is less strongly associated with such a family history compared to Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Recent medical procedure is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may be more indicative of Scleroderma, as malignancies can be associated with other autoimmune diseases.</t>
+          <t>The absence of recent medical procedures is neutral but may slightly favor Scleroderma, as procedures can sometimes trigger or exacerbate symptoms in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Alcohol use is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Recent social stress may exacerbate symptoms in CREST syndrome, while Scleroderma may not be as directly influenced by psychosocial factors.</t>
+          <t>Absence of alcohol use may slightly favor CREST syndrome, as alcohol can exacerbate esophageal symptoms, which are more prominent in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may be more common in Scleroderma, as CREST syndrome can have more reproductive implications.</t>
+          <t>The absence of gestational complications is neutral but may slightly favor Scleroderma, as pregnancy complications can sometimes be associated with autoimmune conditions like CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -920,105 +920,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are more commonly associated with CREST syndrome, indicating vascular changes typical of this condition.</t>
+          <t>Telangiectasias are more commonly associated with CREST syndrome than with generalized Scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent</t>
+          <t>Weight loss on vitals is present</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hand thickening is a classic sign of scleroderma; its absence may suggest a lower likelihood of this diagnosis.</t>
+          <t>Weight loss can be a feature of Scleroderma due to gastrointestinal involvement.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present</t>
+          <t>Raynauds phenomenon on exam is absent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with achalasia due to difficulty swallowing, which is more characteristic of CREST syndrome with Type 2 Achalasia.</t>
+          <t>Raynaud's phenomenon is a common feature of Scleroderma, and its absence may favor CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent</t>
+          <t>Weakness on exam is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Finger ulcers are more characteristic of scleroderma; their absence may indicate a lower likelihood of this condition.</t>
+          <t>Weakness is not a distinguishing feature but its absence does not strongly favor CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent</t>
+          <t>Hand thickening observed is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon may suggest a lower likelihood of scleroderma, which often presents with this symptom.</t>
+          <t>Hand thickening is more characteristic of Scleroderma, and its absence may suggest CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent</t>
+          <t>Hoarse voice observed is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muscle weakness can be associated with scleroderma; its absence may suggest a lower likelihood of this diagnosis.</t>
+          <t>Hoarseness can occur in Scleroderma due to esophageal involvement, and its absence may slightly favor CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent</t>
+          <t>Finger ulcers observed is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A hoarse voice is more commonly associated with scleroderma due to esophageal involvement; its absence may favor CREST syndrome.</t>
+          <t>Finger ulcers are more commonly seen in Scleroderma, and their absence may favor CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent</t>
+          <t>Cough observed is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint swelling is more common in scleroderma; its absence may favor the diagnosis of CREST syndrome.</t>
+          <t>Cough can be associated with Scleroderma due to lung involvement, and its absence may slightly favor CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cough observed is absent</t>
+          <t>Joint swelling observed is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cough is more frequently seen in scleroderma due to pulmonary involvement; its absence may support the diagnosis of CREST syndrome.</t>
+          <t>Joint swelling can be associated with Scleroderma, and its absence may suggest CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules is absent</t>
+          <t>Epigastric pain on palpation is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules are associated with scleroderma; their absence may suggest a lower likelihood of this diagnosis.</t>
+          <t>Epigastric pain can occur in Scleroderma due to gastrointestinal involvement, and its absence may slightly favor CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1071,105 +1071,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is more commonly associated with CREST syndrome due to metabolic changes and may indicate underlying vascular involvement.</t>
+          <t>Hyperlipidemia is more commonly associated with CREST syndrome than with Scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>While hyperlipidemia can occur in both conditions, it is less characteristic of Scleroderma, which is more associated with skin and organ fibrosis.</t>
+          <t>The absence of a strong positive ANA makes Scleroderma less likely, as it is often present in Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA is more indicative of CREST syndrome, as Scleroderma typically presents with positive ANA.</t>
+          <t>Aspiration is less common in CREST syndrome with Type 2 Achalasia compared to Scleroderma, where esophageal dysmotility can lead to aspiration.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA does not support Scleroderma, as it is typically associated with positive ANA results.</t>
+          <t>The absence of interstitial lung disease (ILD) makes Scleroderma less likely, as ILD is a common complication.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of aspiration on MBS is more consistent with CREST syndrome, where esophageal motility issues are common but may not lead to aspiration.</t>
+          <t>Interstitial lung disease (ILD) is more commonly associated with Scleroderma than with CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of aspiration does not favor Scleroderma, as esophageal dysmotility can lead to aspiration in Scleroderma patients.</t>
+          <t>The absence of a widened mediastinum makes Scleroderma less likely, as it can be associated with pulmonary involvement.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of interstitial lung disease (ILD) on CT is more suggestive of CREST syndrome, as Scleroderma often presents with ILD.</t>
+          <t>Widened mediastinum is not a typical finding in CREST syndrome, whereas it can be associated with Scleroderma due to pulmonary involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of ILD on CT is not typical for Scleroderma, which often presents with pulmonary complications.</t>
+          <t>The absence of aspiration makes Scleroderma less likely, as esophageal dysmotility can lead to aspiration.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>ANA strong positive is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum on chest X-ray (CXR) is more consistent with CREST syndrome, as Scleroderma may show changes related to fibrosis.</t>
+          <t>A strong positive ANA is more indicative of Scleroderma than CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>Hyperlipidemia on lab testing is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum does not support Scleroderma, as it may show mediastinal changes due to fibrosis.</t>
+          <t>Hyperlipidemia is not a distinguishing feature of Scleroderma, making it less supportive of this diagnosis.</t>
         </is>
       </c>
     </row>
